--- a/AWS表.xlsx
+++ b/AWS表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\portfolio\Jalan-Angular\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A2BF8A-5936-40B1-8744-03A0E8607B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA357D61-D15D-4589-B99C-18E3F4026910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4116" yWindow="432" windowWidth="18372" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="432" windowWidth="18372" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Lambda</t>
     <phoneticPr fontId="1"/>
@@ -66,6 +66,10 @@
   </si>
   <si>
     <t>Comment-SearchAPI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aaa</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -414,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -460,6 +464,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
